--- a/Code/Results/Cases/Case_1_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_196/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9832903837364648</v>
+        <v>1.024338149013958</v>
       </c>
       <c r="D2">
-        <v>1.027099978883099</v>
+        <v>1.034191466648898</v>
       </c>
       <c r="E2">
-        <v>0.991851948336968</v>
+        <v>1.024815386143875</v>
       </c>
       <c r="F2">
-        <v>0.9592358402410233</v>
+        <v>1.022818776234388</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040023840595057</v>
+        <v>1.033440287926734</v>
       </c>
       <c r="J2">
-        <v>1.005982627507496</v>
+        <v>1.029513323041823</v>
       </c>
       <c r="K2">
-        <v>1.038194249538405</v>
+        <v>1.036991649358475</v>
       </c>
       <c r="L2">
-        <v>1.003425977881844</v>
+        <v>1.027642781320001</v>
       </c>
       <c r="M2">
-        <v>0.971293894415009</v>
+        <v>1.025652036322532</v>
       </c>
       <c r="N2">
-        <v>1.005524594164371</v>
+        <v>1.013800290477456</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9893732810327784</v>
+        <v>1.025546527427986</v>
       </c>
       <c r="D3">
-        <v>1.030082434971382</v>
+        <v>1.034785196301982</v>
       </c>
       <c r="E3">
-        <v>0.9968124805784701</v>
+        <v>1.025848877626426</v>
       </c>
       <c r="F3">
-        <v>0.968166918849667</v>
+        <v>1.024667743269559</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041571460521151</v>
+        <v>1.033681192818823</v>
       </c>
       <c r="J3">
-        <v>1.01015789376293</v>
+        <v>1.03035922663561</v>
       </c>
       <c r="K3">
-        <v>1.040344347273682</v>
+        <v>1.037395090002931</v>
       </c>
       <c r="L3">
-        <v>1.007486309437502</v>
+        <v>1.028482828766609</v>
       </c>
       <c r="M3">
-        <v>0.9792239917122137</v>
+        <v>1.027304908121812</v>
       </c>
       <c r="N3">
-        <v>1.006965689232553</v>
+        <v>1.014087431925886</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9931974314737155</v>
+        <v>1.026327410116028</v>
       </c>
       <c r="D4">
-        <v>1.031966132658599</v>
+        <v>1.035169016740766</v>
       </c>
       <c r="E4">
-        <v>0.9999373050664423</v>
+        <v>1.026517062960678</v>
       </c>
       <c r="F4">
-        <v>0.973767263808486</v>
+        <v>1.02586283580272</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042534538612371</v>
+        <v>1.033835530653418</v>
       </c>
       <c r="J4">
-        <v>1.012776762996574</v>
+        <v>1.030905096233534</v>
       </c>
       <c r="K4">
-        <v>1.041693475145762</v>
+        <v>1.037655084728173</v>
       </c>
       <c r="L4">
-        <v>1.010036486819671</v>
+        <v>1.029025247975916</v>
       </c>
       <c r="M4">
-        <v>0.9841929568885319</v>
+        <v>1.02837270958878</v>
       </c>
       <c r="N4">
-        <v>1.007868991491666</v>
+        <v>1.014272551847992</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9947797204190241</v>
+        <v>1.026655453556383</v>
       </c>
       <c r="D5">
-        <v>1.032747433983443</v>
+        <v>1.035330287874758</v>
       </c>
       <c r="E5">
-        <v>1.001231677275961</v>
+        <v>1.026797838620939</v>
       </c>
       <c r="F5">
-        <v>0.9760815577292128</v>
+        <v>1.026364950408374</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042930590429179</v>
+        <v>1.033900045346491</v>
       </c>
       <c r="J5">
-        <v>1.013858893280869</v>
+        <v>1.031134227043078</v>
       </c>
       <c r="K5">
-        <v>1.042250953557196</v>
+        <v>1.03776413335433</v>
       </c>
       <c r="L5">
-        <v>1.011091032092063</v>
+        <v>1.029253009026966</v>
       </c>
       <c r="M5">
-        <v>0.9862454000167906</v>
+        <v>1.028821212901431</v>
       </c>
       <c r="N5">
-        <v>1.008242081362159</v>
+        <v>1.014350214441138</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9950439438376891</v>
+        <v>1.02671051956514</v>
       </c>
       <c r="D6">
-        <v>1.03287800828312</v>
+        <v>1.035357360900291</v>
       </c>
       <c r="E6">
-        <v>1.001447904700584</v>
+        <v>1.026844974581717</v>
       </c>
       <c r="F6">
-        <v>0.9764678602606416</v>
+        <v>1.026449240280346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04299658138011</v>
+        <v>1.03391085603144</v>
       </c>
       <c r="J6">
-        <v>1.014039509827016</v>
+        <v>1.031172678517985</v>
       </c>
       <c r="K6">
-        <v>1.042343998906145</v>
+        <v>1.03778242825929</v>
       </c>
       <c r="L6">
-        <v>1.011267091002469</v>
+        <v>1.029291235240353</v>
       </c>
       <c r="M6">
-        <v>0.9865879377651313</v>
+        <v>1.028896495408565</v>
       </c>
       <c r="N6">
-        <v>1.008304343372135</v>
+        <v>1.01436324486957</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9932186720668396</v>
+        <v>1.026331794384854</v>
       </c>
       <c r="D7">
-        <v>1.031976613554103</v>
+        <v>1.035171171995648</v>
       </c>
       <c r="E7">
-        <v>0.9999546750715552</v>
+        <v>1.026520815203918</v>
       </c>
       <c r="F7">
-        <v>0.9737983416876559</v>
+        <v>1.02586954625568</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042539864913264</v>
+        <v>1.033836394150777</v>
       </c>
       <c r="J7">
-        <v>1.01279129527364</v>
+        <v>1.030908159272928</v>
       </c>
       <c r="K7">
-        <v>1.041700961799542</v>
+        <v>1.037656542835748</v>
       </c>
       <c r="L7">
-        <v>1.010050645506873</v>
+        <v>1.029028292395539</v>
       </c>
       <c r="M7">
-        <v>0.9842205222398317</v>
+        <v>1.02837870407225</v>
       </c>
       <c r="N7">
-        <v>1.007874002485992</v>
+        <v>1.014273590214082</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9853701774368824</v>
+        <v>1.024746739730342</v>
       </c>
       <c r="D8">
-        <v>1.028117747835828</v>
+        <v>1.03439219525742</v>
       </c>
       <c r="E8">
-        <v>0.9935466301322274</v>
+        <v>1.025164775621776</v>
       </c>
       <c r="F8">
-        <v>0.9622928280141737</v>
+        <v>1.023443922353071</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040555024632646</v>
+        <v>1.033522022893316</v>
       </c>
       <c r="J8">
-        <v>1.007411442050923</v>
+        <v>1.029799509817373</v>
       </c>
       <c r="K8">
-        <v>1.038929853785611</v>
+        <v>1.03712821328442</v>
       </c>
       <c r="L8">
-        <v>1.004814731871837</v>
+        <v>1.027926918590949</v>
       </c>
       <c r="M8">
-        <v>0.9740090092126453</v>
+        <v>1.026210994056229</v>
       </c>
       <c r="N8">
-        <v>1.006017867854279</v>
+        <v>1.013897472588348</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9706133560219934</v>
+        <v>1.021945673506869</v>
       </c>
       <c r="D9">
-        <v>1.020942556749779</v>
+        <v>1.033016772599212</v>
       </c>
       <c r="E9">
-        <v>0.9815524282165857</v>
+        <v>1.02277089707642</v>
       </c>
       <c r="F9">
-        <v>0.9405149497738448</v>
+        <v>1.019159070455271</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036746385615865</v>
+        <v>1.032956208059162</v>
       </c>
       <c r="J9">
-        <v>0.9972482854828078</v>
+        <v>1.027834401391574</v>
       </c>
       <c r="K9">
-        <v>1.033704753700482</v>
+        <v>1.036189112857879</v>
       </c>
       <c r="L9">
-        <v>0.9949520674464399</v>
+        <v>1.025977242538397</v>
       </c>
       <c r="M9">
-        <v>0.9546529647656546</v>
+        <v>1.022377582296327</v>
       </c>
       <c r="N9">
-        <v>1.002507265667669</v>
+        <v>1.013229457092732</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.960042342565248</v>
+        <v>1.020072645843813</v>
       </c>
       <c r="D10">
-        <v>1.015872454869021</v>
+        <v>1.032097973420878</v>
       </c>
       <c r="E10">
-        <v>0.9730027555691799</v>
+        <v>1.02117185951231</v>
       </c>
       <c r="F10">
-        <v>0.9247680957790327</v>
+        <v>1.01629462639839</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033970558601386</v>
+        <v>1.032570986672975</v>
       </c>
       <c r="J10">
-        <v>0.9899361714946748</v>
+        <v>1.026516379885352</v>
       </c>
       <c r="K10">
-        <v>1.029960921427069</v>
+        <v>1.035557571653186</v>
       </c>
       <c r="L10">
-        <v>0.9878771837353041</v>
+        <v>1.024671287534228</v>
       </c>
       <c r="M10">
-        <v>0.9406429060545007</v>
+        <v>1.019812139631722</v>
       </c>
       <c r="N10">
-        <v>0.9999797751354378</v>
+        <v>1.012780525353227</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.955262151436328</v>
+        <v>1.019260202449427</v>
       </c>
       <c r="D11">
-        <v>1.013600143237603</v>
+        <v>1.03169968517154</v>
       </c>
       <c r="E11">
-        <v>0.9691480072939807</v>
+        <v>1.020478676931121</v>
       </c>
       <c r="F11">
-        <v>0.9175995828331384</v>
+        <v>1.015052254170765</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032705193605236</v>
+        <v>1.03240227138393</v>
       </c>
       <c r="J11">
-        <v>0.9866222365034916</v>
+        <v>1.025943731429865</v>
       </c>
       <c r="K11">
-        <v>1.028270058859289</v>
+        <v>1.035282804263353</v>
       </c>
       <c r="L11">
-        <v>0.9846761829207615</v>
+        <v>1.024104290730036</v>
       </c>
       <c r="M11">
-        <v>0.9342628440965167</v>
+        <v>1.018698792205592</v>
       </c>
       <c r="N11">
-        <v>0.9988341570652528</v>
+        <v>1.012585268332793</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9534532282054773</v>
+        <v>1.018958207550329</v>
       </c>
       <c r="D12">
-        <v>1.012743672479677</v>
+        <v>1.031551676723379</v>
       </c>
       <c r="E12">
-        <v>0.9676911279691975</v>
+        <v>1.020221075839792</v>
       </c>
       <c r="F12">
-        <v>0.9148783503440263</v>
+        <v>1.014590459421493</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032224934735739</v>
+        <v>1.032339314850109</v>
       </c>
       <c r="J12">
-        <v>0.9853670668788483</v>
+        <v>1.025730729385057</v>
       </c>
       <c r="K12">
-        <v>1.027630729716645</v>
+        <v>1.035180546736526</v>
       </c>
       <c r="L12">
-        <v>0.9834646439965299</v>
+        <v>1.023893452507349</v>
       </c>
       <c r="M12">
-        <v>0.9318407080518645</v>
+        <v>1.01828485777102</v>
       </c>
       <c r="N12">
-        <v>0.9984002546328006</v>
+        <v>1.01251260977158</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9538428077881653</v>
+        <v>1.019022996399512</v>
       </c>
       <c r="D13">
-        <v>1.012927966299742</v>
+        <v>1.03158342804605</v>
       </c>
       <c r="E13">
-        <v>0.9680048044209836</v>
+        <v>1.020276337738921</v>
       </c>
       <c r="F13">
-        <v>0.9154648180809004</v>
+        <v>1.014689530786259</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032328428166768</v>
+        <v>1.032352832295295</v>
       </c>
       <c r="J13">
-        <v>0.9856374370462541</v>
+        <v>1.02577643245641</v>
       </c>
       <c r="K13">
-        <v>1.02776839165815</v>
+        <v>1.035202490231576</v>
       </c>
       <c r="L13">
-        <v>0.9837255764960134</v>
+        <v>1.023938688503701</v>
       </c>
       <c r="M13">
-        <v>0.9323627230045335</v>
+        <v>1.018373665862602</v>
       </c>
       <c r="N13">
-        <v>0.9984937187919444</v>
+        <v>1.01252820124577</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9551133235432507</v>
+        <v>1.019235243920076</v>
       </c>
       <c r="D14">
-        <v>1.01352960619877</v>
+        <v>1.031687452103037</v>
       </c>
       <c r="E14">
-        <v>0.9690281055552323</v>
+        <v>1.020457386059353</v>
       </c>
       <c r="F14">
-        <v>0.9173758765408725</v>
+        <v>1.015014088733885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032665708779506</v>
+        <v>1.032397073261042</v>
       </c>
       <c r="J14">
-        <v>0.9865189907602571</v>
+        <v>1.025926130653664</v>
       </c>
       <c r="K14">
-        <v>1.028217446492845</v>
+        <v>1.035274355639482</v>
       </c>
       <c r="L14">
-        <v>0.9845765084578453</v>
+        <v>1.024086867496813</v>
       </c>
       <c r="M14">
-        <v>0.9340637292455962</v>
+        <v>1.018664584238967</v>
       </c>
       <c r="N14">
-        <v>0.998798465528615</v>
+        <v>1.012579265041234</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9558916189148389</v>
+        <v>1.019365987672622</v>
       </c>
       <c r="D15">
-        <v>1.013898620767677</v>
+        <v>1.031751535950062</v>
       </c>
       <c r="E15">
-        <v>0.969655207060876</v>
+        <v>1.020568919598278</v>
       </c>
       <c r="F15">
-        <v>0.9185453937155861</v>
+        <v>1.015214016440656</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032872137636724</v>
+        <v>1.032424293367868</v>
       </c>
       <c r="J15">
-        <v>0.9870588692897538</v>
+        <v>1.026018325455284</v>
       </c>
       <c r="K15">
-        <v>1.028492605618098</v>
+        <v>1.035318608211625</v>
       </c>
       <c r="L15">
-        <v>0.9850977475944545</v>
+        <v>1.024178134832627</v>
       </c>
       <c r="M15">
-        <v>0.9351046768832048</v>
+        <v>1.018843776898042</v>
       </c>
       <c r="N15">
-        <v>0.9989850992443781</v>
+        <v>1.012610709681382</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9603550777206018</v>
+        <v>1.020126534867729</v>
       </c>
       <c r="D16">
-        <v>1.016021567745984</v>
+        <v>1.032124397182593</v>
       </c>
       <c r="E16">
-        <v>0.9732551915092454</v>
+        <v>1.021217846822788</v>
       </c>
       <c r="F16">
-        <v>0.9252359853567462</v>
+        <v>1.01637703414199</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034053141483891</v>
+        <v>1.032582143391213</v>
       </c>
       <c r="J16">
-        <v>0.9901528267135771</v>
+        <v>1.026554343539633</v>
       </c>
       <c r="K16">
-        <v>1.030071603824171</v>
+        <v>1.035575779505039</v>
       </c>
       <c r="L16">
-        <v>0.9880865711355128</v>
+        <v>1.024708885135258</v>
       </c>
       <c r="M16">
-        <v>0.9410592978964309</v>
+        <v>1.01988597518793</v>
       </c>
       <c r="N16">
-        <v>1.000054671658838</v>
+        <v>1.012793465556978</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9630986659227605</v>
+        <v>1.020603224716647</v>
       </c>
       <c r="D17">
-        <v>1.017332057147718</v>
+        <v>1.032358164792607</v>
       </c>
       <c r="E17">
-        <v>0.9754710823289952</v>
+        <v>1.021624687941203</v>
       </c>
       <c r="F17">
-        <v>0.9293351904578726</v>
+        <v>1.017106005603043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034776498434445</v>
+        <v>1.03268064602552</v>
       </c>
       <c r="J17">
-        <v>0.9920526818345917</v>
+        <v>1.026890052281045</v>
       </c>
       <c r="K17">
-        <v>1.03104286724411</v>
+        <v>1.035736746300398</v>
       </c>
       <c r="L17">
-        <v>0.9899233099555276</v>
+        <v>1.02504140409843</v>
       </c>
       <c r="M17">
-        <v>0.9447070941068463</v>
+        <v>1.020539041857351</v>
       </c>
       <c r="N17">
-        <v>1.000711429390726</v>
+        <v>1.012907870621186</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9646795931638873</v>
+        <v>1.020881134158711</v>
       </c>
       <c r="D18">
-        <v>1.018089086111306</v>
+        <v>1.032494474828481</v>
       </c>
       <c r="E18">
-        <v>0.9767489991703152</v>
+        <v>1.021861915631773</v>
       </c>
       <c r="F18">
-        <v>0.9316928617521709</v>
+        <v>1.017531005607962</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035192355166656</v>
+        <v>1.032737916539735</v>
       </c>
       <c r="J18">
-        <v>0.9931467312492603</v>
+        <v>1.027085678942848</v>
       </c>
       <c r="K18">
-        <v>1.031602716378991</v>
+        <v>1.035830509544976</v>
       </c>
       <c r="L18">
-        <v>0.9909815189092107</v>
+        <v>1.025235211365198</v>
       </c>
       <c r="M18">
-        <v>0.9468049214269036</v>
+        <v>1.02091972485986</v>
       </c>
       <c r="N18">
-        <v>1.001089615523125</v>
+        <v>1.012974517626597</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9652154454101924</v>
+        <v>1.020975871245079</v>
       </c>
       <c r="D19">
-        <v>1.018345990314398</v>
+        <v>1.032540945793212</v>
       </c>
       <c r="E19">
-        <v>0.9771823233537557</v>
+        <v>1.021942791389603</v>
       </c>
       <c r="F19">
-        <v>0.9324912799758724</v>
+        <v>1.017675886698357</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035333143098074</v>
+        <v>1.032757413054247</v>
       </c>
       <c r="J19">
-        <v>0.9935174387534665</v>
+        <v>1.027152351053646</v>
       </c>
       <c r="K19">
-        <v>1.031792500965733</v>
+        <v>1.03586245903698</v>
       </c>
       <c r="L19">
-        <v>0.9913401668596479</v>
+        <v>1.025301270075889</v>
       </c>
       <c r="M19">
-        <v>0.9475153045299223</v>
+        <v>1.021049487652812</v>
       </c>
       <c r="N19">
-        <v>1.001217756948952</v>
+        <v>1.012997228400802</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9628063270064199</v>
+        <v>1.020552094481935</v>
       </c>
       <c r="D20">
-        <v>1.01719222101746</v>
+        <v>1.032333088153249</v>
       </c>
       <c r="E20">
-        <v>0.9752348601364814</v>
+        <v>1.02158104561308</v>
       </c>
       <c r="F20">
-        <v>0.9288988716032548</v>
+        <v>1.017027814319169</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034699521312691</v>
+        <v>1.032670096706113</v>
       </c>
       <c r="J20">
-        <v>0.9918503179804508</v>
+        <v>1.026854053237636</v>
       </c>
       <c r="K20">
-        <v>1.030939355387115</v>
+        <v>1.03571948911965</v>
       </c>
       <c r="L20">
-        <v>0.989727616120517</v>
+        <v>1.025005743028672</v>
       </c>
       <c r="M20">
-        <v>0.9443188446694402</v>
+        <v>1.020468998877539</v>
       </c>
       <c r="N20">
-        <v>1.000641475847397</v>
+        <v>1.012895604689852</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.954740133881995</v>
+        <v>1.019172748356136</v>
       </c>
       <c r="D21">
-        <v>1.013352789063327</v>
+        <v>1.031656821445924</v>
       </c>
       <c r="E21">
-        <v>0.9687274789345253</v>
+        <v>1.020404075245289</v>
       </c>
       <c r="F21">
-        <v>0.9168147855055616</v>
+        <v>1.014918523524549</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032566677151601</v>
+        <v>1.03238405336151</v>
       </c>
       <c r="J21">
-        <v>0.9862600816691488</v>
+        <v>1.025882056438862</v>
       </c>
       <c r="K21">
-        <v>1.028085528923964</v>
+        <v>1.03525319850152</v>
       </c>
       <c r="L21">
-        <v>0.9843265689784649</v>
+        <v>1.02404323886449</v>
       </c>
       <c r="M21">
-        <v>0.9335643145987665</v>
+        <v>1.018578926833141</v>
       </c>
       <c r="N21">
-        <v>0.9987089621429565</v>
+        <v>1.012564231663552</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.949473936351145</v>
+        <v>1.018304239060444</v>
       </c>
       <c r="D22">
-        <v>1.010866330664221</v>
+        <v>1.031231241186551</v>
       </c>
       <c r="E22">
-        <v>0.9644898035759917</v>
+        <v>1.019663358286711</v>
       </c>
       <c r="F22">
-        <v>0.9088747508258286</v>
+        <v>1.013590456162191</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031165961422301</v>
+        <v>1.032202538866373</v>
       </c>
       <c r="J22">
-        <v>0.982603885457464</v>
+        <v>1.025269215208335</v>
       </c>
       <c r="K22">
-        <v>1.026225553787385</v>
+        <v>1.034958884873659</v>
       </c>
       <c r="L22">
-        <v>0.9807991455864177</v>
+        <v>1.023436739694564</v>
       </c>
       <c r="M22">
-        <v>0.9264967505025435</v>
+        <v>1.017388314325815</v>
       </c>
       <c r="N22">
-        <v>0.9974450862004959</v>
+        <v>1.012355123382629</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9522851640508032</v>
+        <v>1.018764773485177</v>
       </c>
       <c r="D23">
-        <v>1.012191640716774</v>
+        <v>1.031456885799773</v>
       </c>
       <c r="E23">
-        <v>0.9667509212828268</v>
+        <v>1.020056094812995</v>
       </c>
       <c r="F23">
-        <v>0.9131185983501627</v>
+        <v>1.014294672177904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031914434214924</v>
+        <v>1.032298921524028</v>
       </c>
       <c r="J23">
-        <v>0.9845562621929087</v>
+        <v>1.025594257202475</v>
       </c>
       <c r="K23">
-        <v>1.027218077223897</v>
+        <v>1.035115014153234</v>
       </c>
       <c r="L23">
-        <v>0.9826822707651474</v>
+        <v>1.02375838407943</v>
       </c>
       <c r="M23">
-        <v>0.930274333104037</v>
+        <v>1.018019698095204</v>
       </c>
       <c r="N23">
-        <v>0.998119970891557</v>
+        <v>1.012466048171605</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9629384819996362</v>
+        <v>1.020575198452996</v>
       </c>
       <c r="D24">
-        <v>1.017255429617745</v>
+        <v>1.032344419339101</v>
       </c>
       <c r="E24">
-        <v>0.9753416436617128</v>
+        <v>1.021600765936755</v>
       </c>
       <c r="F24">
-        <v>0.9290961278608751</v>
+        <v>1.017063146201051</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034734322650609</v>
+        <v>1.032674864059216</v>
       </c>
       <c r="J24">
-        <v>0.9919418009310114</v>
+        <v>1.026870320231978</v>
       </c>
       <c r="K24">
-        <v>1.030986148501458</v>
+        <v>1.035727287286062</v>
       </c>
       <c r="L24">
-        <v>0.9898160821768978</v>
+        <v>1.025021857180175</v>
       </c>
       <c r="M24">
-        <v>0.944494369804919</v>
+        <v>1.020500649024644</v>
       </c>
       <c r="N24">
-        <v>1.000673099902709</v>
+        <v>1.012901147394273</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9745487296532972</v>
+        <v>1.022670791991497</v>
       </c>
       <c r="D25">
-        <v>1.022845300708135</v>
+        <v>1.033372679120966</v>
       </c>
       <c r="E25">
-        <v>0.9847442565947823</v>
+        <v>1.023390308067716</v>
       </c>
       <c r="F25">
-        <v>0.9463438819038</v>
+        <v>1.020268139968773</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037770521579865</v>
+        <v>1.033103893678725</v>
       </c>
       <c r="J25">
-        <v>0.9999640741634774</v>
+        <v>1.028343815390059</v>
       </c>
       <c r="K25">
-        <v>1.035099029857937</v>
+        <v>1.036432856374802</v>
       </c>
       <c r="L25">
-        <v>0.997584106769339</v>
+        <v>1.026482355108678</v>
       </c>
       <c r="M25">
-        <v>0.9598364614443857</v>
+        <v>1.023370295087104</v>
       </c>
       <c r="N25">
-        <v>1.003445739033254</v>
+        <v>1.013402783130343</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_196/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_196/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.024338149013958</v>
+        <v>0.9832903837364647</v>
       </c>
       <c r="D2">
-        <v>1.034191466648898</v>
+        <v>1.027099978883099</v>
       </c>
       <c r="E2">
-        <v>1.024815386143875</v>
+        <v>0.9918519483369678</v>
       </c>
       <c r="F2">
-        <v>1.022818776234388</v>
+        <v>0.9592358402410234</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033440287926734</v>
+        <v>1.040023840595057</v>
       </c>
       <c r="J2">
-        <v>1.029513323041823</v>
+        <v>1.005982627507495</v>
       </c>
       <c r="K2">
-        <v>1.036991649358475</v>
+        <v>1.038194249538405</v>
       </c>
       <c r="L2">
-        <v>1.027642781320001</v>
+        <v>1.003425977881844</v>
       </c>
       <c r="M2">
-        <v>1.025652036322532</v>
+        <v>0.9712938944150092</v>
       </c>
       <c r="N2">
-        <v>1.013800290477456</v>
+        <v>1.005524594164371</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025546527427986</v>
+        <v>0.9893732810327781</v>
       </c>
       <c r="D3">
-        <v>1.034785196301982</v>
+        <v>1.030082434971382</v>
       </c>
       <c r="E3">
-        <v>1.025848877626426</v>
+        <v>0.9968124805784697</v>
       </c>
       <c r="F3">
-        <v>1.024667743269559</v>
+        <v>0.9681669188496658</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033681192818823</v>
+        <v>1.041571460521151</v>
       </c>
       <c r="J3">
-        <v>1.03035922663561</v>
+        <v>1.01015789376293</v>
       </c>
       <c r="K3">
-        <v>1.037395090002931</v>
+        <v>1.040344347273682</v>
       </c>
       <c r="L3">
-        <v>1.028482828766609</v>
+        <v>1.007486309437502</v>
       </c>
       <c r="M3">
-        <v>1.027304908121812</v>
+        <v>0.9792239917122125</v>
       </c>
       <c r="N3">
-        <v>1.014087431925886</v>
+        <v>1.006965689232553</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026327410116028</v>
+        <v>0.9931974314737149</v>
       </c>
       <c r="D4">
-        <v>1.035169016740766</v>
+        <v>1.031966132658599</v>
       </c>
       <c r="E4">
-        <v>1.026517062960678</v>
+        <v>0.9999373050664416</v>
       </c>
       <c r="F4">
-        <v>1.02586283580272</v>
+        <v>0.9737672638084849</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033835530653418</v>
+        <v>1.042534538612371</v>
       </c>
       <c r="J4">
-        <v>1.030905096233534</v>
+        <v>1.012776762996573</v>
       </c>
       <c r="K4">
-        <v>1.037655084728173</v>
+        <v>1.041693475145762</v>
       </c>
       <c r="L4">
-        <v>1.029025247975916</v>
+        <v>1.01003648681967</v>
       </c>
       <c r="M4">
-        <v>1.02837270958878</v>
+        <v>0.984192956888531</v>
       </c>
       <c r="N4">
-        <v>1.014272551847992</v>
+        <v>1.007868991491666</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026655453556383</v>
+        <v>0.9947797204190235</v>
       </c>
       <c r="D5">
-        <v>1.035330287874758</v>
+        <v>1.032747433983443</v>
       </c>
       <c r="E5">
-        <v>1.026797838620939</v>
+        <v>1.00123167727596</v>
       </c>
       <c r="F5">
-        <v>1.026364950408374</v>
+        <v>0.9760815577292121</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033900045346491</v>
+        <v>1.042930590429179</v>
       </c>
       <c r="J5">
-        <v>1.031134227043078</v>
+        <v>1.013858893280868</v>
       </c>
       <c r="K5">
-        <v>1.03776413335433</v>
+        <v>1.042250953557196</v>
       </c>
       <c r="L5">
-        <v>1.029253009026966</v>
+        <v>1.011091032092062</v>
       </c>
       <c r="M5">
-        <v>1.028821212901431</v>
+        <v>0.9862454000167898</v>
       </c>
       <c r="N5">
-        <v>1.014350214441138</v>
+        <v>1.008242081362159</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.02671051956514</v>
+        <v>0.9950439438376893</v>
       </c>
       <c r="D6">
-        <v>1.035357360900291</v>
+        <v>1.03287800828312</v>
       </c>
       <c r="E6">
-        <v>1.026844974581717</v>
+        <v>1.001447904700585</v>
       </c>
       <c r="F6">
-        <v>1.026449240280346</v>
+        <v>0.9764678602606413</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03391085603144</v>
+        <v>1.04299658138011</v>
       </c>
       <c r="J6">
-        <v>1.031172678517985</v>
+        <v>1.014039509827016</v>
       </c>
       <c r="K6">
-        <v>1.03778242825929</v>
+        <v>1.042343998906145</v>
       </c>
       <c r="L6">
-        <v>1.029291235240353</v>
+        <v>1.01126709100247</v>
       </c>
       <c r="M6">
-        <v>1.028896495408565</v>
+        <v>0.9865879377651311</v>
       </c>
       <c r="N6">
-        <v>1.01436324486957</v>
+        <v>1.008304343372135</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026331794384854</v>
+        <v>0.9932186720668393</v>
       </c>
       <c r="D7">
-        <v>1.035171171995648</v>
+        <v>1.031976613554103</v>
       </c>
       <c r="E7">
-        <v>1.026520815203918</v>
+        <v>0.9999546750715549</v>
       </c>
       <c r="F7">
-        <v>1.02586954625568</v>
+        <v>0.9737983416876559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033836394150777</v>
+        <v>1.042539864913264</v>
       </c>
       <c r="J7">
-        <v>1.030908159272928</v>
+        <v>1.01279129527364</v>
       </c>
       <c r="K7">
-        <v>1.037656542835748</v>
+        <v>1.041700961799542</v>
       </c>
       <c r="L7">
-        <v>1.029028292395539</v>
+        <v>1.010050645506873</v>
       </c>
       <c r="M7">
-        <v>1.02837870407225</v>
+        <v>0.9842205222398316</v>
       </c>
       <c r="N7">
-        <v>1.014273590214082</v>
+        <v>1.007874002485992</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.024746739730342</v>
+        <v>0.9853701774368829</v>
       </c>
       <c r="D8">
-        <v>1.03439219525742</v>
+        <v>1.028117747835828</v>
       </c>
       <c r="E8">
-        <v>1.025164775621776</v>
+        <v>0.9935466301322282</v>
       </c>
       <c r="F8">
-        <v>1.023443922353071</v>
+        <v>0.9622928280141744</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033522022893316</v>
+        <v>1.040555024632646</v>
       </c>
       <c r="J8">
-        <v>1.029799509817373</v>
+        <v>1.007411442050923</v>
       </c>
       <c r="K8">
-        <v>1.03712821328442</v>
+        <v>1.038929853785611</v>
       </c>
       <c r="L8">
-        <v>1.027926918590949</v>
+        <v>1.004814731871838</v>
       </c>
       <c r="M8">
-        <v>1.026210994056229</v>
+        <v>0.9740090092126459</v>
       </c>
       <c r="N8">
-        <v>1.013897472588348</v>
+        <v>1.006017867854279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021945673506869</v>
+        <v>0.9706133560219932</v>
       </c>
       <c r="D9">
-        <v>1.033016772599212</v>
+        <v>1.020942556749779</v>
       </c>
       <c r="E9">
-        <v>1.02277089707642</v>
+        <v>0.9815524282165855</v>
       </c>
       <c r="F9">
-        <v>1.019159070455271</v>
+        <v>0.9405149497738449</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032956208059162</v>
+        <v>1.036746385615864</v>
       </c>
       <c r="J9">
-        <v>1.027834401391574</v>
+        <v>0.9972482854828075</v>
       </c>
       <c r="K9">
-        <v>1.036189112857879</v>
+        <v>1.033704753700482</v>
       </c>
       <c r="L9">
-        <v>1.025977242538397</v>
+        <v>0.9949520674464396</v>
       </c>
       <c r="M9">
-        <v>1.022377582296327</v>
+        <v>0.9546529647656548</v>
       </c>
       <c r="N9">
-        <v>1.013229457092732</v>
+        <v>1.00250726566767</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020072645843813</v>
+        <v>0.9600423425652475</v>
       </c>
       <c r="D10">
-        <v>1.032097973420878</v>
+        <v>1.015872454869021</v>
       </c>
       <c r="E10">
-        <v>1.02117185951231</v>
+        <v>0.9730027555691795</v>
       </c>
       <c r="F10">
-        <v>1.01629462639839</v>
+        <v>0.9247680957790315</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032570986672975</v>
+        <v>1.033970558601385</v>
       </c>
       <c r="J10">
-        <v>1.026516379885352</v>
+        <v>0.9899361714946744</v>
       </c>
       <c r="K10">
-        <v>1.035557571653186</v>
+        <v>1.029960921427069</v>
       </c>
       <c r="L10">
-        <v>1.024671287534228</v>
+        <v>0.9878771837353036</v>
       </c>
       <c r="M10">
-        <v>1.019812139631722</v>
+        <v>0.9406429060544997</v>
       </c>
       <c r="N10">
-        <v>1.012780525353227</v>
+        <v>0.9999797751354377</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.019260202449427</v>
+        <v>0.9552621514363283</v>
       </c>
       <c r="D11">
-        <v>1.03169968517154</v>
+        <v>1.013600143237604</v>
       </c>
       <c r="E11">
-        <v>1.020478676931121</v>
+        <v>0.9691480072939811</v>
       </c>
       <c r="F11">
-        <v>1.015052254170765</v>
+        <v>0.9175995828331387</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03240227138393</v>
+        <v>1.032705193605237</v>
       </c>
       <c r="J11">
-        <v>1.025943731429865</v>
+        <v>0.986622236503492</v>
       </c>
       <c r="K11">
-        <v>1.035282804263353</v>
+        <v>1.02827005885929</v>
       </c>
       <c r="L11">
-        <v>1.024104290730036</v>
+        <v>0.9846761829207621</v>
       </c>
       <c r="M11">
-        <v>1.018698792205592</v>
+        <v>0.9342628440965173</v>
       </c>
       <c r="N11">
-        <v>1.012585268332793</v>
+        <v>0.9988341570652529</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.018958207550329</v>
+        <v>0.9534532282054765</v>
       </c>
       <c r="D12">
-        <v>1.031551676723379</v>
+        <v>1.012743672479677</v>
       </c>
       <c r="E12">
-        <v>1.020221075839792</v>
+        <v>0.9676911279691969</v>
       </c>
       <c r="F12">
-        <v>1.014590459421493</v>
+        <v>0.9148783503440254</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032339314850109</v>
+        <v>1.032224934735738</v>
       </c>
       <c r="J12">
-        <v>1.025730729385057</v>
+        <v>0.9853670668788477</v>
       </c>
       <c r="K12">
-        <v>1.035180546736526</v>
+        <v>1.027630729716644</v>
       </c>
       <c r="L12">
-        <v>1.023893452507349</v>
+        <v>0.983464643996529</v>
       </c>
       <c r="M12">
-        <v>1.01828485777102</v>
+        <v>0.9318407080518631</v>
       </c>
       <c r="N12">
-        <v>1.01251260977158</v>
+        <v>0.9984002546328004</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.019022996399512</v>
+        <v>0.9538428077881652</v>
       </c>
       <c r="D13">
-        <v>1.03158342804605</v>
+        <v>1.012927966299742</v>
       </c>
       <c r="E13">
-        <v>1.020276337738921</v>
+        <v>0.9680048044209837</v>
       </c>
       <c r="F13">
-        <v>1.014689530786259</v>
+        <v>0.9154648180809004</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032352832295295</v>
+        <v>1.032328428166767</v>
       </c>
       <c r="J13">
-        <v>1.02577643245641</v>
+        <v>0.985637437046254</v>
       </c>
       <c r="K13">
-        <v>1.035202490231576</v>
+        <v>1.02776839165815</v>
       </c>
       <c r="L13">
-        <v>1.023938688503701</v>
+        <v>0.9837255764960136</v>
       </c>
       <c r="M13">
-        <v>1.018373665862602</v>
+        <v>0.9323627230045334</v>
       </c>
       <c r="N13">
-        <v>1.01252820124577</v>
+        <v>0.9984937187919444</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.019235243920076</v>
+        <v>0.9551133235432506</v>
       </c>
       <c r="D14">
-        <v>1.031687452103037</v>
+        <v>1.01352960619877</v>
       </c>
       <c r="E14">
-        <v>1.020457386059353</v>
+        <v>0.9690281055552323</v>
       </c>
       <c r="F14">
-        <v>1.015014088733885</v>
+        <v>0.9173758765408727</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032397073261042</v>
+        <v>1.032665708779506</v>
       </c>
       <c r="J14">
-        <v>1.025926130653664</v>
+        <v>0.9865189907602571</v>
       </c>
       <c r="K14">
-        <v>1.035274355639482</v>
+        <v>1.028217446492845</v>
       </c>
       <c r="L14">
-        <v>1.024086867496813</v>
+        <v>0.9845765084578452</v>
       </c>
       <c r="M14">
-        <v>1.018664584238967</v>
+        <v>0.9340637292455966</v>
       </c>
       <c r="N14">
-        <v>1.012579265041234</v>
+        <v>0.998798465528615</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.019365987672622</v>
+        <v>0.955891618914839</v>
       </c>
       <c r="D15">
-        <v>1.031751535950062</v>
+        <v>1.013898620767677</v>
       </c>
       <c r="E15">
-        <v>1.020568919598278</v>
+        <v>0.9696552070608759</v>
       </c>
       <c r="F15">
-        <v>1.015214016440656</v>
+        <v>0.9185453937155861</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032424293367868</v>
+        <v>1.032872137636724</v>
       </c>
       <c r="J15">
-        <v>1.026018325455284</v>
+        <v>0.9870588692897539</v>
       </c>
       <c r="K15">
-        <v>1.035318608211625</v>
+        <v>1.028492605618098</v>
       </c>
       <c r="L15">
-        <v>1.024178134832627</v>
+        <v>0.9850977475944543</v>
       </c>
       <c r="M15">
-        <v>1.018843776898042</v>
+        <v>0.9351046768832048</v>
       </c>
       <c r="N15">
-        <v>1.012610709681382</v>
+        <v>0.9989850992443781</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020126534867729</v>
+        <v>0.9603550777206011</v>
       </c>
       <c r="D16">
-        <v>1.032124397182593</v>
+        <v>1.016021567745984</v>
       </c>
       <c r="E16">
-        <v>1.021217846822788</v>
+        <v>0.9732551915092443</v>
       </c>
       <c r="F16">
-        <v>1.01637703414199</v>
+        <v>0.9252359853567451</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032582143391213</v>
+        <v>1.034053141483891</v>
       </c>
       <c r="J16">
-        <v>1.026554343539633</v>
+        <v>0.9901528267135764</v>
       </c>
       <c r="K16">
-        <v>1.035575779505039</v>
+        <v>1.030071603824171</v>
       </c>
       <c r="L16">
-        <v>1.024708885135258</v>
+        <v>0.988086571135512</v>
       </c>
       <c r="M16">
-        <v>1.01988597518793</v>
+        <v>0.9410592978964302</v>
       </c>
       <c r="N16">
-        <v>1.012793465556978</v>
+        <v>1.000054671658838</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.020603224716647</v>
+        <v>0.9630986659227602</v>
       </c>
       <c r="D17">
-        <v>1.032358164792607</v>
+        <v>1.017332057147718</v>
       </c>
       <c r="E17">
-        <v>1.021624687941203</v>
+        <v>0.9754710823289948</v>
       </c>
       <c r="F17">
-        <v>1.017106005603043</v>
+        <v>0.9293351904578722</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03268064602552</v>
+        <v>1.034776498434445</v>
       </c>
       <c r="J17">
-        <v>1.026890052281045</v>
+        <v>0.9920526818345915</v>
       </c>
       <c r="K17">
-        <v>1.035736746300398</v>
+        <v>1.03104286724411</v>
       </c>
       <c r="L17">
-        <v>1.02504140409843</v>
+        <v>0.9899233099555274</v>
       </c>
       <c r="M17">
-        <v>1.020539041857351</v>
+        <v>0.9447070941068461</v>
       </c>
       <c r="N17">
-        <v>1.012907870621186</v>
+        <v>1.000711429390726</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.020881134158711</v>
+        <v>0.9646795931638866</v>
       </c>
       <c r="D18">
-        <v>1.032494474828481</v>
+        <v>1.018089086111306</v>
       </c>
       <c r="E18">
-        <v>1.021861915631773</v>
+        <v>0.9767489991703147</v>
       </c>
       <c r="F18">
-        <v>1.017531005607962</v>
+        <v>0.9316928617521704</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032737916539735</v>
+        <v>1.035192355166656</v>
       </c>
       <c r="J18">
-        <v>1.027085678942848</v>
+        <v>0.9931467312492598</v>
       </c>
       <c r="K18">
-        <v>1.035830509544976</v>
+        <v>1.031602716378991</v>
       </c>
       <c r="L18">
-        <v>1.025235211365198</v>
+        <v>0.9909815189092103</v>
       </c>
       <c r="M18">
-        <v>1.02091972485986</v>
+        <v>0.9468049214269032</v>
       </c>
       <c r="N18">
-        <v>1.012974517626597</v>
+        <v>1.001089615523125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.020975871245079</v>
+        <v>0.9652154454101921</v>
       </c>
       <c r="D19">
-        <v>1.032540945793212</v>
+        <v>1.018345990314398</v>
       </c>
       <c r="E19">
-        <v>1.021942791389603</v>
+        <v>0.9771823233537553</v>
       </c>
       <c r="F19">
-        <v>1.017675886698357</v>
+        <v>0.9324912799758723</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032757413054247</v>
+        <v>1.035333143098074</v>
       </c>
       <c r="J19">
-        <v>1.027152351053646</v>
+        <v>0.9935174387534663</v>
       </c>
       <c r="K19">
-        <v>1.03586245903698</v>
+        <v>1.031792500965733</v>
       </c>
       <c r="L19">
-        <v>1.025301270075889</v>
+        <v>0.9913401668596475</v>
       </c>
       <c r="M19">
-        <v>1.021049487652812</v>
+        <v>0.9475153045299223</v>
       </c>
       <c r="N19">
-        <v>1.012997228400802</v>
+        <v>1.001217756948952</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.020552094481935</v>
+        <v>0.9628063270064199</v>
       </c>
       <c r="D20">
-        <v>1.032333088153249</v>
+        <v>1.01719222101746</v>
       </c>
       <c r="E20">
-        <v>1.02158104561308</v>
+        <v>0.9752348601364818</v>
       </c>
       <c r="F20">
-        <v>1.017027814319169</v>
+        <v>0.9288988716032542</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032670096706113</v>
+        <v>1.034699521312691</v>
       </c>
       <c r="J20">
-        <v>1.026854053237636</v>
+        <v>0.9918503179804508</v>
       </c>
       <c r="K20">
-        <v>1.03571948911965</v>
+        <v>1.030939355387115</v>
       </c>
       <c r="L20">
-        <v>1.025005743028672</v>
+        <v>0.9897276161205171</v>
       </c>
       <c r="M20">
-        <v>1.020468998877539</v>
+        <v>0.9443188446694395</v>
       </c>
       <c r="N20">
-        <v>1.012895604689852</v>
+        <v>1.000641475847397</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.019172748356136</v>
+        <v>0.9547401338819956</v>
       </c>
       <c r="D21">
-        <v>1.031656821445924</v>
+        <v>1.013352789063327</v>
       </c>
       <c r="E21">
-        <v>1.020404075245289</v>
+        <v>0.9687274789345257</v>
       </c>
       <c r="F21">
-        <v>1.014918523524549</v>
+        <v>0.9168147855055627</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03238405336151</v>
+        <v>1.032566677151601</v>
       </c>
       <c r="J21">
-        <v>1.025882056438862</v>
+        <v>0.9862600816691494</v>
       </c>
       <c r="K21">
-        <v>1.03525319850152</v>
+        <v>1.028085528923964</v>
       </c>
       <c r="L21">
-        <v>1.02404323886449</v>
+        <v>0.9843265689784654</v>
       </c>
       <c r="M21">
-        <v>1.018578926833141</v>
+        <v>0.9335643145987677</v>
       </c>
       <c r="N21">
-        <v>1.012564231663552</v>
+        <v>0.9987089621429566</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018304239060444</v>
+        <v>0.9494739363511443</v>
       </c>
       <c r="D22">
-        <v>1.031231241186551</v>
+        <v>1.010866330664221</v>
       </c>
       <c r="E22">
-        <v>1.019663358286711</v>
+        <v>0.964489803575991</v>
       </c>
       <c r="F22">
-        <v>1.013590456162191</v>
+        <v>0.9088747508258279</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032202538866373</v>
+        <v>1.031165961422301</v>
       </c>
       <c r="J22">
-        <v>1.025269215208335</v>
+        <v>0.9826038854574635</v>
       </c>
       <c r="K22">
-        <v>1.034958884873659</v>
+        <v>1.026225553787385</v>
       </c>
       <c r="L22">
-        <v>1.023436739694564</v>
+        <v>0.9807991455864169</v>
       </c>
       <c r="M22">
-        <v>1.017388314325815</v>
+        <v>0.926496750502543</v>
       </c>
       <c r="N22">
-        <v>1.012355123382629</v>
+        <v>0.9974450862004958</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.018764773485177</v>
+        <v>0.952285164050803</v>
       </c>
       <c r="D23">
-        <v>1.031456885799773</v>
+        <v>1.012191640716774</v>
       </c>
       <c r="E23">
-        <v>1.020056094812995</v>
+        <v>0.9667509212828262</v>
       </c>
       <c r="F23">
-        <v>1.014294672177904</v>
+        <v>0.9131185983501622</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032298921524028</v>
+        <v>1.031914434214924</v>
       </c>
       <c r="J23">
-        <v>1.025594257202475</v>
+        <v>0.9845562621929081</v>
       </c>
       <c r="K23">
-        <v>1.035115014153234</v>
+        <v>1.027218077223897</v>
       </c>
       <c r="L23">
-        <v>1.02375838407943</v>
+        <v>0.9826822707651468</v>
       </c>
       <c r="M23">
-        <v>1.018019698095204</v>
+        <v>0.9302743331040366</v>
       </c>
       <c r="N23">
-        <v>1.012466048171605</v>
+        <v>0.998119970891557</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.020575198452996</v>
+        <v>0.9629384819996355</v>
       </c>
       <c r="D24">
-        <v>1.032344419339101</v>
+        <v>1.017255429617745</v>
       </c>
       <c r="E24">
-        <v>1.021600765936755</v>
+        <v>0.9753416436617122</v>
       </c>
       <c r="F24">
-        <v>1.017063146201051</v>
+        <v>0.9290961278608743</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032674864059216</v>
+        <v>1.034734322650609</v>
       </c>
       <c r="J24">
-        <v>1.026870320231978</v>
+        <v>0.9919418009310108</v>
       </c>
       <c r="K24">
-        <v>1.035727287286062</v>
+        <v>1.030986148501458</v>
       </c>
       <c r="L24">
-        <v>1.025021857180175</v>
+        <v>0.9898160821768969</v>
       </c>
       <c r="M24">
-        <v>1.020500649024644</v>
+        <v>0.9444943698049183</v>
       </c>
       <c r="N24">
-        <v>1.012901147394273</v>
+        <v>1.000673099902709</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022670791991497</v>
+        <v>0.9745487296532974</v>
       </c>
       <c r="D25">
-        <v>1.033372679120966</v>
+        <v>1.022845300708136</v>
       </c>
       <c r="E25">
-        <v>1.023390308067716</v>
+        <v>0.9847442565947825</v>
       </c>
       <c r="F25">
-        <v>1.020268139968773</v>
+        <v>0.9463438819038006</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033103893678725</v>
+        <v>1.037770521579865</v>
       </c>
       <c r="J25">
-        <v>1.028343815390059</v>
+        <v>0.9999640741634777</v>
       </c>
       <c r="K25">
-        <v>1.036432856374802</v>
+        <v>1.035099029857937</v>
       </c>
       <c r="L25">
-        <v>1.026482355108678</v>
+        <v>0.9975841067693393</v>
       </c>
       <c r="M25">
-        <v>1.023370295087104</v>
+        <v>0.9598364614443863</v>
       </c>
       <c r="N25">
-        <v>1.013402783130343</v>
+        <v>1.003445739033254</v>
       </c>
     </row>
   </sheetData>
